--- a/Excel/078_Dashboard+Dados3.xlsx
+++ b/Excel/078_Dashboard+Dados3.xlsx
@@ -1,27 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD0E3C7-F8A8-4CC0-A27C-3E6A8519993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FE085-E3EB-4F69-96E4-F9D3AA6E44C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="753" xr2:uid="{23D2CAF9-2782-440E-8280-5351985CC5A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="753" firstSheet="1" activeTab="4" xr2:uid="{23D2CAF9-2782-440E-8280-5351985CC5A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados" sheetId="8" r:id="rId1"/>
-    <sheet name="Imagens Produtos" sheetId="7" r:id="rId2"/>
-    <sheet name="Personagens" sheetId="9" r:id="rId3"/>
+    <sheet name="Tabela Dinâmica" sheetId="11" r:id="rId1"/>
+    <sheet name="Dados" sheetId="8" r:id="rId2"/>
+    <sheet name="Imagens Produtos" sheetId="7" r:id="rId3"/>
+    <sheet name="Vendedores TOP3" sheetId="10" r:id="rId4"/>
+    <sheet name="Rank Vendas" sheetId="12" r:id="rId5"/>
+    <sheet name="Resumo" sheetId="13" r:id="rId6"/>
+    <sheet name="Personagens" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Imagens Produtos'!$B$1:$B$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Personagens!$A$1:$A$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Imagens Produtos'!$B$1:$B$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Personagens!$A$1:$A$9</definedName>
+    <definedName name="Bermuda_Masculino">'Imagens Produtos'!$C$2</definedName>
+    <definedName name="Bolsa_de_Trabalho">'Imagens Produtos'!$C$3</definedName>
+    <definedName name="Boné">'Imagens Produtos'!$C$4</definedName>
+    <definedName name="Bota_Masculina">'Imagens Produtos'!$C$5</definedName>
+    <definedName name="Bulma">Personagens!$B$2</definedName>
+    <definedName name="Calça_Bailarina">'Imagens Produtos'!$C$6</definedName>
+    <definedName name="CalçaFemininaJogger">'Imagens Produtos'!$C$7</definedName>
+    <definedName name="Camisa_Masculina">'Imagens Produtos'!$C$8</definedName>
+    <definedName name="Camisa_Masculina_Festa_Balada">'Imagens Produtos'!$C$9</definedName>
+    <definedName name="Camisa_Térmica">'Imagens Produtos'!$C$10</definedName>
+    <definedName name="Chinelo">'Imagens Produtos'!$C$11</definedName>
+    <definedName name="Colar_Pingente">'Imagens Produtos'!$C$12</definedName>
+    <definedName name="Gohan">Personagens!$B$3</definedName>
+    <definedName name="Goku">Personagens!$B$4</definedName>
+    <definedName name="Jaqueta_Masculina_Preta">'Imagens Produtos'!$C$13</definedName>
+    <definedName name="Kit_de_Pinceis_de_Maquiagem">'Imagens Produtos'!$C$14</definedName>
+    <definedName name="Kuririn">Personagens!$B$5</definedName>
+    <definedName name="Piccolo">Personagens!$B$6</definedName>
+    <definedName name="Rank1">INDIRECT('Tabela Dinâmica'!$A$4)</definedName>
+    <definedName name="Rank2">INDIRECT('Tabela Dinâmica'!$A$5)</definedName>
+    <definedName name="Rank3">INDIRECT('Tabela Dinâmica'!$A$6)</definedName>
+    <definedName name="Rank4">INDIRECT('Tabela Dinâmica'!$A$7)</definedName>
+    <definedName name="Rank5">INDIRECT('Tabela Dinâmica'!$A$8)</definedName>
+    <definedName name="Rank6">INDIRECT('Tabela Dinâmica'!$A$9)</definedName>
+    <definedName name="Rank7">INDIRECT('Tabela Dinâmica'!$A$10)</definedName>
+    <definedName name="Rank8">INDIRECT('Tabela Dinâmica'!$A$11)</definedName>
+    <definedName name="Relógio">'Imagens Produtos'!$C$15</definedName>
+    <definedName name="Sapatilha_Sapato">'Imagens Produtos'!$C$16</definedName>
+    <definedName name="Sapato_Social">'Imagens Produtos'!$C$17</definedName>
+    <definedName name="Tênis_Feminino">'Imagens Produtos'!$C$18</definedName>
+    <definedName name="Tenshinhan">Personagens!$B$7</definedName>
+    <definedName name="Vazio">'Imagens Produtos'!$C$20</definedName>
+    <definedName name="Vegeta">Personagens!$B$8</definedName>
+    <definedName name="Vestido_Infantil">'Imagens Produtos'!$C$19</definedName>
+    <definedName name="Yamcha">Personagens!$B$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="57">
   <si>
     <t>Vendedor</t>
   </si>
@@ -176,12 +218,43 @@
   <si>
     <t>Vendedor Repetido</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Total</t>
+  </si>
+  <si>
+    <t>01 - Vendedor TOP3</t>
+  </si>
+  <si>
+    <t>02 - Rank Vendas</t>
+  </si>
+  <si>
+    <t>03 - Resumo</t>
+  </si>
+  <si>
+    <t>MELHORES VENDEDORES DO MÊS</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,16 +262,93 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -206,17 +356,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1248,6 +1569,1345 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E709B9DC-B2E5-410B-BA06-9A46723C81CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3265714" y="1480457"/>
+          <a:ext cx="5269593" cy="2664615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>239485</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>103414</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>424543</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>111557</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Imagem 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF05D19E-0392-4C5B-AD23-173678DE88CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s4117"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6770914" y="1398814"/>
+              <a:ext cx="1491343" cy="1303543"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>293914</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>478971</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>46243</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Imagem 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B77331F-63A4-4419-9B02-749DAC9C57B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s4118"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3559628" y="1703614"/>
+              <a:ext cx="1491343" cy="1303543"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Tabela Dinâmica'!A4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CaixaDeTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1C3564-2869-8C7A-F1A4-13C8AEF1EAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5045529" y="636807"/>
+          <a:ext cx="1703614" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{62E1D613-4F6C-4148-8844-11723D1B400A}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Gohan</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146958</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Tabela Dinâmica'!A6">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CaixaDeTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3665A329-B688-45ED-A634-B747C9DC41DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3412672" y="1475006"/>
+          <a:ext cx="1703614" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{636D2089-DE9E-4B5E-9542-B205C7BAF06B}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Bulma</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>125186</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Tabela Dinâmica'!A5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CaixaDeTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B8854F-80EB-4CD2-89FE-DF8B48645733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6656615" y="1148435"/>
+          <a:ext cx="1703614" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{D903AF40-EB5A-4DC1-A239-608755E00BBB}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>Tenshinhan</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>544282</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>138813</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>76196</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>146956</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Imagem 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A42A245-AC45-D0CF-3331-A4E496A9E6A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s4119"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5116282" y="879042"/>
+              <a:ext cx="1491343" cy="1303543"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>157843</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Tabela Dinâmica'!B6">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CaixaDeTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7AB9E6-695A-4B72-AAF1-ABB7C9CCFC97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3423557" y="2944586"/>
+          <a:ext cx="1703614" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{F3822A77-1F1F-4247-B1EF-32F3BD23CFF8}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3.912,28 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Tabela Dinâmica'!B4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B6B506-B094-4DC0-A9E2-2A6FB873ADCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5001986" y="2149929"/>
+          <a:ext cx="1703614" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{17A2D6DA-2F2D-438E-86B3-45676A520CAE}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4.663,48 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Tabela Dinâmica'!B5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CaixaDeTexto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B59E379-D2A7-4AE0-BF63-CC647794771A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="2672443"/>
+          <a:ext cx="1703614" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{9B7BD0FB-4891-4F24-9FEA-49CF3268030E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4.096,58 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>386442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1387928</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphic 3" descr="Trophy">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8F6E20-6F6F-4AE6-A8B8-C99AEBAE1205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="386442" y="125186"/>
+          <a:ext cx="1001486" cy="930275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1382485</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 3" descr="Trophy">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5BBE66-3FA7-4560-B4DF-6A94A6C2F9E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="380999" y="130627"/>
+          <a:ext cx="1001486" cy="930275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>631373</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>181630</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>5443</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19754</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Imagem 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{859B3968-A157-48BF-8032-10325C690FB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s6171"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3173187" y="1291973"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>16331</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>181630</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="729343" cy="591256"/>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Imagem 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B4F689-4E4A-4B6C-A690-FEE300ABF15C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s6172"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3211288" y="2048530"/>
+              <a:ext cx="729343" cy="591256"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>631373</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>181631</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="729343" cy="591255"/>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Imagem 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5933AC7-E939-486F-8619-5B6593E18396}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s6173"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3173187" y="2805088"/>
+              <a:ext cx="729343" cy="591255"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>631373</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>181631</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="729343" cy="591255"/>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Imagem 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4466228-3AE8-46F7-88C3-2C5B5DC05DCC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank4" spid="_x0000_s6174"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3173187" y="3561645"/>
+              <a:ext cx="729343" cy="591255"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>631373</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>181631</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="729343" cy="618469"/>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Imagem 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3954ED-ACCF-4EEA-B942-AC370531596B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank5" spid="_x0000_s6175"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6923316" y="1291974"/>
+              <a:ext cx="729343" cy="618469"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>631373</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>181631</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="729343" cy="591255"/>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Imagem 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCCC12B-443F-48E6-BAA2-0044521D1350}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank6" spid="_x0000_s6176"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6923316" y="2048531"/>
+              <a:ext cx="729343" cy="591255"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>631373</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>181631</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="729343" cy="591255"/>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Imagem 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DE5E50-AF62-4151-9045-46EBD6CCC181}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank7" spid="_x0000_s6177"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6923316" y="2805088"/>
+              <a:ext cx="729343" cy="591255"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>631373</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>181631</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="729343" cy="613026"/>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Imagem 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EB24F4-9528-457D-B8B0-F038C23CD0C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Rank8" spid="_x0000_s6178"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6923316" y="3561645"/>
+              <a:ext cx="729343" cy="613026"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>375555</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1377041</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 3" descr="Trophy">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77429985-6206-4904-821C-CBB794AD5803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="375555" y="130627"/>
+          <a:ext cx="1001486" cy="930275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>90296</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1641,6 +3301,727 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rodrigo Costa" refreshedDate="45474.794466435182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="74" xr:uid="{C71CA6C2-06F9-42B5-92A6-BF7DA3592CA0}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Vendedor Repetido" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Piccolo"/>
+        <s v="Tenshinhan"/>
+        <s v="Gohan"/>
+        <s v="Bulma"/>
+        <s v="Vegeta"/>
+        <s v="Goku"/>
+        <s v="Yamcha"/>
+        <s v="Kuririn"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Produto" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Valor Unitário" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="40" maxValue="678"/>
+    </cacheField>
+    <cacheField name="Unidades Vendidas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="46.9" maxValue="1337.04"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Tênis Feminino"/>
+    <n v="89.99"/>
+    <n v="3"/>
+    <n v="269.96999999999997"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Calça Feminina Jogger"/>
+    <n v="69.989999999999995"/>
+    <n v="5"/>
+    <n v="349.95"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Camisa Masculina"/>
+    <n v="153.4"/>
+    <n v="1"/>
+    <n v="153.4"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Bermuda Masculino"/>
+    <n v="148.56"/>
+    <n v="9"/>
+    <n v="1337.04"/>
+  </r>
+  <r>
+    <s v="Vegeta"/>
+    <x v="4"/>
+    <s v="Camisa Masculina Festa Balada"/>
+    <n v="146.13999999999999"/>
+    <n v="1"/>
+    <n v="146.13999999999999"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Bota Masculina"/>
+    <n v="224.14"/>
+    <n v="4"/>
+    <n v="896.56"/>
+  </r>
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Jaqueta Masculina Preta"/>
+    <n v="150.5"/>
+    <n v="4"/>
+    <n v="602"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Bolsa de Trabalho"/>
+    <n v="248.73"/>
+    <n v="1"/>
+    <n v="248.73"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Kit de Pinceis de Maquiagem"/>
+    <n v="116.52"/>
+    <n v="1"/>
+    <n v="116.52"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Vestido Infantil"/>
+    <n v="59.9"/>
+    <n v="1"/>
+    <n v="59.9"/>
+  </r>
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Calça Bailarina"/>
+    <n v="46.9"/>
+    <n v="1"/>
+    <n v="46.9"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Camisa Térmica"/>
+    <n v="41.9"/>
+    <n v="4"/>
+    <n v="167.6"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Sapato Social"/>
+    <n v="81.900000000000006"/>
+    <n v="9"/>
+    <n v="737.1"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Sapatilha Sapato"/>
+    <n v="55.9"/>
+    <n v="2"/>
+    <n v="111.8"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Colar Pingente"/>
+    <n v="89.9"/>
+    <n v="1"/>
+    <n v="89.9"/>
+  </r>
+  <r>
+    <s v="Yamcha"/>
+    <x v="6"/>
+    <s v="Tênis Feminino"/>
+    <n v="89.99"/>
+    <n v="1"/>
+    <n v="89.99"/>
+  </r>
+  <r>
+    <s v="Kuririn"/>
+    <x v="7"/>
+    <s v="Calça Feminina Jogger"/>
+    <n v="69.989999999999995"/>
+    <n v="1"/>
+    <n v="69.989999999999995"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Camisa Masculina"/>
+    <n v="153.4"/>
+    <n v="2"/>
+    <n v="306.8"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Bermuda Masculino"/>
+    <n v="148.56"/>
+    <n v="6"/>
+    <n v="891.36"/>
+  </r>
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Camisa Masculina Festa Balada"/>
+    <n v="146.13999999999999"/>
+    <n v="1"/>
+    <n v="146.13999999999999"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Bota Masculina"/>
+    <n v="224.14"/>
+    <n v="1"/>
+    <n v="224.14"/>
+  </r>
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Jaqueta Masculina Preta"/>
+    <n v="150.5"/>
+    <n v="5"/>
+    <n v="752.5"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Bolsa de Trabalho"/>
+    <n v="248.73"/>
+    <n v="2"/>
+    <n v="497.46"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Kit de Pinceis de Maquiagem"/>
+    <n v="116.52"/>
+    <n v="3"/>
+    <n v="349.56"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Vestido Infantil"/>
+    <n v="59.9"/>
+    <n v="2"/>
+    <n v="119.8"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Calça Bailarina"/>
+    <n v="46.9"/>
+    <n v="2"/>
+    <n v="93.8"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Camisa Térmica"/>
+    <n v="41.9"/>
+    <n v="2"/>
+    <n v="83.8"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Sapato Social"/>
+    <n v="81.900000000000006"/>
+    <n v="4"/>
+    <n v="327.60000000000002"/>
+  </r>
+  <r>
+    <s v="Yamcha"/>
+    <x v="6"/>
+    <s v="Kit de Pinceis de Maquiagem"/>
+    <n v="116.52"/>
+    <n v="3"/>
+    <n v="349.56"/>
+  </r>
+  <r>
+    <s v="Yamcha"/>
+    <x v="6"/>
+    <s v="Vestido Infantil"/>
+    <n v="59.9"/>
+    <n v="2"/>
+    <n v="119.8"/>
+  </r>
+  <r>
+    <s v="Kuririn"/>
+    <x v="7"/>
+    <s v="Boné"/>
+    <n v="40"/>
+    <n v="3"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <s v="Kuririn"/>
+    <x v="7"/>
+    <s v="Relógio"/>
+    <n v="390"/>
+    <n v="2"/>
+    <n v="780"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Bermuda Masculino"/>
+    <n v="148.56"/>
+    <n v="2"/>
+    <n v="297.12"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Camisa Masculina"/>
+    <n v="153.4"/>
+    <n v="1"/>
+    <n v="153.4"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Chinelo"/>
+    <n v="40"/>
+    <n v="3"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <s v="Vegeta"/>
+    <x v="4"/>
+    <s v="Sapato Social"/>
+    <n v="81.900000000000006"/>
+    <n v="8"/>
+    <n v="655.20000000000005"/>
+  </r>
+  <r>
+    <s v="Vegeta"/>
+    <x v="4"/>
+    <s v="Camisa Masculina"/>
+    <n v="153.4"/>
+    <n v="1"/>
+    <n v="153.4"/>
+  </r>
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Tênis Feminino"/>
+    <n v="89.99"/>
+    <n v="3"/>
+    <n v="269.96999999999997"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Calça Feminina Jogger"/>
+    <n v="69.989999999999995"/>
+    <n v="5"/>
+    <n v="349.95"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Camisa Masculina"/>
+    <n v="153.4"/>
+    <n v="1"/>
+    <n v="153.4"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Bermuda Masculino"/>
+    <n v="148.56"/>
+    <n v="9"/>
+    <n v="1337.04"/>
+  </r>
+  <r>
+    <s v="Vegeta"/>
+    <x v="4"/>
+    <s v="Camisa Masculina Festa Balada"/>
+    <n v="146.13999999999999"/>
+    <n v="1"/>
+    <n v="146.13999999999999"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Bota Masculina"/>
+    <n v="224.14"/>
+    <n v="4"/>
+    <n v="896.56"/>
+  </r>
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Jaqueta Masculina Preta"/>
+    <n v="150.5"/>
+    <n v="4"/>
+    <n v="602"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Bolsa de Trabalho"/>
+    <n v="248.73"/>
+    <n v="1"/>
+    <n v="248.73"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Kit de Pinceis de Maquiagem"/>
+    <n v="116.52"/>
+    <n v="1"/>
+    <n v="116.52"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Vestido Infantil"/>
+    <n v="59.9"/>
+    <n v="1"/>
+    <n v="59.9"/>
+  </r>
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Calça Bailarina"/>
+    <n v="46.9"/>
+    <n v="1"/>
+    <n v="46.9"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Camisa Térmica"/>
+    <n v="41.9"/>
+    <n v="4"/>
+    <n v="167.6"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Sapato Social"/>
+    <n v="81.900000000000006"/>
+    <n v="9"/>
+    <n v="737.1"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Sapatilha Sapato"/>
+    <n v="55.9"/>
+    <n v="2"/>
+    <n v="111.8"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Colar Pingente"/>
+    <n v="678"/>
+    <n v="1"/>
+    <n v="678"/>
+  </r>
+  <r>
+    <s v="Yamcha"/>
+    <x v="6"/>
+    <s v="Tênis Feminino"/>
+    <n v="89.99"/>
+    <n v="1"/>
+    <n v="89.99"/>
+  </r>
+  <r>
+    <s v="Kuririn"/>
+    <x v="7"/>
+    <s v="Calça Feminina Jogger"/>
+    <n v="69.989999999999995"/>
+    <n v="1"/>
+    <n v="69.989999999999995"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Camisa Masculina"/>
+    <n v="153.4"/>
+    <n v="2"/>
+    <n v="306.8"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Bermuda Masculino"/>
+    <n v="148.56"/>
+    <n v="6"/>
+    <n v="891.36"/>
+  </r>
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Camisa Masculina Festa Balada"/>
+    <n v="146.13999999999999"/>
+    <n v="1"/>
+    <n v="146.13999999999999"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Bota Masculina"/>
+    <n v="224.14"/>
+    <n v="1"/>
+    <n v="224.14"/>
+  </r>
+  <r>
+    <s v="Piccolo"/>
+    <x v="0"/>
+    <s v="Jaqueta Masculina Preta"/>
+    <n v="150.5"/>
+    <n v="5"/>
+    <n v="752.5"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Bolsa de Trabalho"/>
+    <n v="248.73"/>
+    <n v="2"/>
+    <n v="497.46"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Kit de Pinceis de Maquiagem"/>
+    <n v="116.52"/>
+    <n v="3"/>
+    <n v="349.56"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Vestido Infantil"/>
+    <n v="59.9"/>
+    <n v="2"/>
+    <n v="119.8"/>
+  </r>
+  <r>
+    <s v="Tenshinhan"/>
+    <x v="1"/>
+    <s v="Calça Bailarina"/>
+    <n v="46.9"/>
+    <n v="2"/>
+    <n v="93.8"/>
+  </r>
+  <r>
+    <s v="Gohan"/>
+    <x v="2"/>
+    <s v="Camisa Térmica"/>
+    <n v="41.9"/>
+    <n v="2"/>
+    <n v="83.8"/>
+  </r>
+  <r>
+    <s v="Bulma"/>
+    <x v="3"/>
+    <s v="Sapato Social"/>
+    <n v="81.900000000000006"/>
+    <n v="4"/>
+    <n v="327.60000000000002"/>
+  </r>
+  <r>
+    <s v="Yamcha"/>
+    <x v="6"/>
+    <s v="Kit de Pinceis de Maquiagem"/>
+    <n v="116.52"/>
+    <n v="3"/>
+    <n v="349.56"/>
+  </r>
+  <r>
+    <s v="Yamcha"/>
+    <x v="6"/>
+    <s v="Vestido Infantil"/>
+    <n v="59.9"/>
+    <n v="2"/>
+    <n v="119.8"/>
+  </r>
+  <r>
+    <s v="Kuririn"/>
+    <x v="7"/>
+    <s v="Boné"/>
+    <n v="40"/>
+    <n v="3"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <s v="Kuririn"/>
+    <x v="7"/>
+    <s v="Relógio"/>
+    <n v="390"/>
+    <n v="2"/>
+    <n v="780"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Bermuda Masculino"/>
+    <n v="148.56"/>
+    <n v="2"/>
+    <n v="297.12"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Camisa Masculina"/>
+    <n v="153.4"/>
+    <n v="1"/>
+    <n v="153.4"/>
+  </r>
+  <r>
+    <s v="Goku"/>
+    <x v="5"/>
+    <s v="Chinelo"/>
+    <n v="40"/>
+    <n v="3"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <s v="Vegeta"/>
+    <x v="4"/>
+    <s v="Sapato Social"/>
+    <n v="81.900000000000006"/>
+    <n v="8"/>
+    <n v="655.20000000000005"/>
+  </r>
+  <r>
+    <s v="Vegeta"/>
+    <x v="4"/>
+    <s v="Camisa Masculina"/>
+    <n v="153.4"/>
+    <n v="1"/>
+    <n v="153.4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58316C52-885D-46F8-B047-DE9EE4C43985}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="9">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1956,12 +4337,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6710ABAB-C183-4855-AC68-233BF3C10A8E}">
+  <dimension ref="A3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4663.4800000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4096.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3912.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3635.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3382.4399999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1939.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1909.4800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1118.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4">
+        <v>24657.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00C5F39-B3B4-4616-9353-0B3A3C13D6C3}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3555,12 +6033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFCAC6-0F36-4D13-9465-0B40612D0A46}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3733,12 +6211,447 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E72246-3E3E-4757-B329-DDAE84473E4F}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="26.69140625" style="5" customWidth="1"/>
+    <col min="2" max="11" width="9.23046875" customWidth="1"/>
+    <col min="12" max="16384" width="9.23046875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:10" ht="30.9" x14ac:dyDescent="0.8">
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" ht="21.55" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A8" location="'Vendedores TOP3'!A1" display="01 - Vendedor TOP3" xr:uid="{C996036B-7E81-4F46-ABB7-339C6265BB5A}"/>
+    <hyperlink ref="A9" location="'Rank Vendas'!A1" display="02 - Rank Vendas" xr:uid="{FCC485CE-2A1D-42C4-9B57-5045B6BF9F51}"/>
+    <hyperlink ref="A10" location="Resumo!A1" display="03 - Resumo" xr:uid="{4106D0C5-63A0-4E5C-8B85-EEB9BF76948F}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E9FE5E-183C-4D1E-8F83-D7BBF136064A}">
+  <dimension ref="A8:O22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="26.69140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="1.61328125" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="8" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.61328125" customWidth="1"/>
+    <col min="14" max="14" width="2" customWidth="1"/>
+    <col min="15" max="15" width="12.4609375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="str">
+        <f>'Tabela Dinâmica'!A4</f>
+        <v>Gohan</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="9">
+        <v>5</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11" t="str">
+        <f>'Tabela Dinâmica'!A8</f>
+        <v>Goku</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="14">
+        <f>GETPIVOTDATA("Total",'Tabela Dinâmica'!$A$3,"Vendedor Repetido","Gohan")</f>
+        <v>4663.4800000000005</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="14">
+        <f>'Tabela Dinâmica'!$B$8</f>
+        <v>3382.4399999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="str">
+        <f>'Tabela Dinâmica'!A5</f>
+        <v>Tenshinhan</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="9">
+        <v>6</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11" t="str">
+        <f>'Tabela Dinâmica'!A9</f>
+        <v>Kuririn</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="13"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14">
+        <f>'Tabela Dinâmica'!$B$5</f>
+        <v>4096.58</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="14">
+        <f>'Tabela Dinâmica'!$B$9</f>
+        <v>1939.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="str">
+        <f>'Tabela Dinâmica'!A6</f>
+        <v>Bulma</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="9">
+        <v>7</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11" t="str">
+        <f>'Tabela Dinâmica'!A10</f>
+        <v>Vegeta</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="3:15" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="C17" s="13"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="14">
+        <f>'Tabela Dinâmica'!$B$6</f>
+        <v>3912.28</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="14">
+        <f>'Tabela Dinâmica'!$B$10</f>
+        <v>1909.4800000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11" t="str">
+        <f>'Tabela Dinâmica'!A7</f>
+        <v>Piccolo</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="9">
+        <v>8</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11" t="str">
+        <f>'Tabela Dinâmica'!A11</f>
+        <v>Yamcha</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="3:15" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="C21" s="13"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="14">
+        <f>'Tabela Dinâmica'!$B$7</f>
+        <v>3635.02</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="14">
+        <f>'Tabela Dinâmica'!$B$11</f>
+        <v>1118.7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="F16:H16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" location="'Vendedores TOP3'!A1" display="01 - Vendedor TOP3" xr:uid="{8AE732FF-72D4-4ABD-9483-82061B8CEC05}"/>
+    <hyperlink ref="A9" location="'Rank Vendas'!A1" display="02 - Rank Vendas" xr:uid="{8F3E7855-0414-46AB-A3D5-2E348C291611}"/>
+    <hyperlink ref="A10" location="Resumo!A1" display="03 - Resumo" xr:uid="{390F1346-AD14-477C-A75E-AF73793DE9C8}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77090BE-ED75-4D47-9E38-AEF66F206E68}">
+  <dimension ref="A8:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="26.69140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="'Vendedores TOP3'!A1" display="01 - Vendedor TOP3" xr:uid="{2688396A-DA97-4BF2-8216-AB67EE220792}"/>
+    <hyperlink ref="A9" location="'Rank Vendas'!A1" display="02 - Rank Vendas" xr:uid="{AF5C8F37-525B-4661-A2A6-99F15F66E6D2}"/>
+    <hyperlink ref="A10" location="Resumo!A1" display="03 - Resumo" xr:uid="{25346F7D-0456-40DE-ADB8-F453BF913CDF}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3498D9FB-F093-4B94-8FCA-19E0AA3C4944}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Excel/078_Dashboard+Dados3.xlsx
+++ b/Excel/078_Dashboard+Dados3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FE085-E3EB-4F69-96E4-F9D3AA6E44C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D28542-46DB-498F-84F1-0AAC703EA910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="753" firstSheet="1" activeTab="4" xr2:uid="{23D2CAF9-2782-440E-8280-5351985CC5A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="753" firstSheet="2" activeTab="5" xr2:uid="{23D2CAF9-2782-440E-8280-5351985CC5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Dinâmica" sheetId="11" r:id="rId1"/>
@@ -51,8 +51,10 @@
     <definedName name="Rank7">INDIRECT('Tabela Dinâmica'!$A$10)</definedName>
     <definedName name="Rank8">INDIRECT('Tabela Dinâmica'!$A$11)</definedName>
     <definedName name="Relógio">'Imagens Produtos'!$C$15</definedName>
+    <definedName name="ResumoVendedor">INDIRECT(Resumo!$F$2)</definedName>
     <definedName name="Sapatilha_Sapato">'Imagens Produtos'!$C$16</definedName>
     <definedName name="Sapato_Social">'Imagens Produtos'!$C$17</definedName>
+    <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
     <definedName name="Tênis_Feminino">'Imagens Produtos'!$C$18</definedName>
     <definedName name="Tenshinhan">Personagens!$B$7</definedName>
     <definedName name="Vazio">'Imagens Produtos'!$C$20</definedName>
@@ -65,6 +67,14 @@
     <pivotCache cacheId="3" r:id="rId8"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId9"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -73,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="61">
   <si>
     <t>Vendedor</t>
   </si>
@@ -245,16 +255,29 @@
   <si>
     <t>Meta</t>
   </si>
+  <si>
+    <t>Rank Vendas por Vendedor</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Soma de Unidades Vendidas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +345,20 @@
     </font>
     <font>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -492,12 +529,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -511,34 +549,43 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1645,7 +1692,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s4117"/>
+                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s4123"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1710,7 +1757,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s4118"/>
+                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s4124"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1994,7 +2041,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s4119"/>
+                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s4125"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2095,6 +2142,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>3.912,28 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="4000"/>
@@ -2167,6 +2215,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>4.663,48 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="4000"/>
@@ -2239,6 +2288,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>4.096,58 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="4000"/>
@@ -2315,8 +2365,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1382485</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>135616</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2363,13 +2413,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>631373</xdr:colOff>
+          <xdr:colOff>587829</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>181630</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>5443</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>615042</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>19754</xdr:rowOff>
         </xdr:to>
@@ -2386,7 +2436,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s6171"/>
+                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s6187"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2400,7 +2450,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3173187" y="1291973"/>
+              <a:off x="3129643" y="1466144"/>
               <a:ext cx="680356" cy="594681"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2428,7 +2478,7 @@
       <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>16331</xdr:colOff>
+          <xdr:colOff>10888</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>181630</xdr:rowOff>
         </xdr:from>
@@ -2446,7 +2496,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s6172"/>
+                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s6188"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2460,7 +2510,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3211288" y="2048530"/>
+              <a:off x="3205845" y="2222701"/>
               <a:ext cx="729343" cy="591256"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2488,9 +2538,9 @@
       <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>631373</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>181631</xdr:rowOff>
+          <xdr:colOff>582386</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>12903</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="729343" cy="591255"/>
         <xdr:pic>
@@ -2506,7 +2556,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s6173"/>
+                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s6189"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2520,7 +2570,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3173187" y="2805088"/>
+              <a:off x="3124200" y="2821417"/>
               <a:ext cx="729343" cy="591255"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2548,9 +2598,9 @@
       <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>631373</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>181631</xdr:rowOff>
+          <xdr:colOff>642258</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>2018</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="729343" cy="591255"/>
         <xdr:pic>
@@ -2566,7 +2616,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank4" spid="_x0000_s6174"/>
+                  <a14:cameraTool cellRange="Rank4" spid="_x0000_s6190"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2580,7 +2630,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="3173187" y="3561645"/>
+              <a:off x="3184072" y="3741261"/>
               <a:ext cx="729343" cy="591255"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2626,7 +2676,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank5" spid="_x0000_s6175"/>
+                  <a14:cameraTool cellRange="Rank5" spid="_x0000_s6191"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2686,7 +2736,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank6" spid="_x0000_s6176"/>
+                  <a14:cameraTool cellRange="Rank6" spid="_x0000_s6192"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2746,7 +2796,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank7" spid="_x0000_s6177"/>
+                  <a14:cameraTool cellRange="Rank7" spid="_x0000_s6193"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2806,7 +2856,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank8" spid="_x0000_s6178"/>
+                  <a14:cameraTool cellRange="Rank8" spid="_x0000_s6194"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2858,8 +2908,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1377041</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>135616</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2899,6 +2949,149 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>648301</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>130628</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Imagem 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DB6A5F-CD58-4770-B91E-7C4097C8093D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="ResumoVendedor" spid="_x0000_s7170"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2541814" y="185057"/>
+              <a:ext cx="1301444" cy="1137557"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77554</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2623A54-0086-429A-AE94-839960EB2717}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7766957" y="185057"/>
+              <a:ext cx="1828800" cy="2564940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3310,7 +3503,16 @@
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Vendedor" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="8">
+        <s v="Piccolo"/>
+        <s v="Tenshinhan"/>
+        <s v="Gohan"/>
+        <s v="Bulma"/>
+        <s v="Vegeta"/>
+        <s v="Goku"/>
+        <s v="Yamcha"/>
+        <s v="Kuririn"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Vendedor Repetido" numFmtId="0">
       <sharedItems count="8">
@@ -3325,7 +3527,26 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Produto" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="18">
+        <s v="Tênis Feminino"/>
+        <s v="Calça Feminina Jogger"/>
+        <s v="Camisa Masculina"/>
+        <s v="Bermuda Masculino"/>
+        <s v="Camisa Masculina Festa Balada"/>
+        <s v="Bota Masculina"/>
+        <s v="Jaqueta Masculina Preta"/>
+        <s v="Bolsa de Trabalho"/>
+        <s v="Kit de Pinceis de Maquiagem"/>
+        <s v="Vestido Infantil"/>
+        <s v="Calça Bailarina"/>
+        <s v="Camisa Térmica"/>
+        <s v="Sapato Social"/>
+        <s v="Sapatilha Sapato"/>
+        <s v="Colar Pingente"/>
+        <s v="Boné"/>
+        <s v="Relógio"/>
+        <s v="Chinelo"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Valor Unitário" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="40" maxValue="678"/>
@@ -3339,7 +3560,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="403324215"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -3348,593 +3569,593 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Tênis Feminino"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="89.99"/>
     <n v="3"/>
     <n v="269.96999999999997"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Calça Feminina Jogger"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="69.989999999999995"/>
     <n v="5"/>
     <n v="349.95"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Camisa Masculina"/>
+    <x v="2"/>
+    <x v="2"/>
     <n v="153.4"/>
     <n v="1"/>
     <n v="153.4"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Bermuda Masculino"/>
+    <x v="3"/>
+    <x v="3"/>
     <n v="148.56"/>
     <n v="9"/>
     <n v="1337.04"/>
   </r>
   <r>
-    <s v="Vegeta"/>
     <x v="4"/>
-    <s v="Camisa Masculina Festa Balada"/>
+    <x v="4"/>
+    <x v="4"/>
     <n v="146.13999999999999"/>
     <n v="1"/>
     <n v="146.13999999999999"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Bota Masculina"/>
+    <x v="5"/>
+    <x v="5"/>
     <n v="224.14"/>
     <n v="4"/>
     <n v="896.56"/>
   </r>
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Jaqueta Masculina Preta"/>
+    <x v="0"/>
+    <x v="6"/>
     <n v="150.5"/>
     <n v="4"/>
     <n v="602"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Bolsa de Trabalho"/>
+    <x v="1"/>
+    <x v="7"/>
     <n v="248.73"/>
     <n v="1"/>
     <n v="248.73"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Kit de Pinceis de Maquiagem"/>
+    <x v="2"/>
+    <x v="8"/>
     <n v="116.52"/>
     <n v="1"/>
     <n v="116.52"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Vestido Infantil"/>
+    <x v="3"/>
+    <x v="9"/>
     <n v="59.9"/>
     <n v="1"/>
     <n v="59.9"/>
   </r>
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Calça Bailarina"/>
+    <x v="0"/>
+    <x v="10"/>
     <n v="46.9"/>
     <n v="1"/>
     <n v="46.9"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Camisa Térmica"/>
+    <x v="1"/>
+    <x v="11"/>
     <n v="41.9"/>
     <n v="4"/>
     <n v="167.6"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Sapato Social"/>
+    <x v="2"/>
+    <x v="12"/>
     <n v="81.900000000000006"/>
     <n v="9"/>
     <n v="737.1"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Sapatilha Sapato"/>
+    <x v="3"/>
+    <x v="13"/>
     <n v="55.9"/>
     <n v="2"/>
     <n v="111.8"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Colar Pingente"/>
+    <x v="1"/>
+    <x v="14"/>
     <n v="89.9"/>
     <n v="1"/>
     <n v="89.9"/>
   </r>
   <r>
-    <s v="Yamcha"/>
     <x v="6"/>
-    <s v="Tênis Feminino"/>
+    <x v="6"/>
+    <x v="0"/>
     <n v="89.99"/>
     <n v="1"/>
     <n v="89.99"/>
   </r>
   <r>
-    <s v="Kuririn"/>
     <x v="7"/>
-    <s v="Calça Feminina Jogger"/>
+    <x v="7"/>
+    <x v="1"/>
     <n v="69.989999999999995"/>
     <n v="1"/>
     <n v="69.989999999999995"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Camisa Masculina"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="153.4"/>
     <n v="2"/>
     <n v="306.8"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Bermuda Masculino"/>
+    <x v="2"/>
+    <x v="3"/>
     <n v="148.56"/>
     <n v="6"/>
     <n v="891.36"/>
   </r>
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Camisa Masculina Festa Balada"/>
+    <x v="0"/>
+    <x v="4"/>
     <n v="146.13999999999999"/>
     <n v="1"/>
     <n v="146.13999999999999"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Bota Masculina"/>
+    <x v="5"/>
+    <x v="5"/>
     <n v="224.14"/>
     <n v="1"/>
     <n v="224.14"/>
   </r>
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Jaqueta Masculina Preta"/>
+    <x v="0"/>
+    <x v="6"/>
     <n v="150.5"/>
     <n v="5"/>
     <n v="752.5"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Bolsa de Trabalho"/>
+    <x v="1"/>
+    <x v="7"/>
     <n v="248.73"/>
     <n v="2"/>
     <n v="497.46"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Kit de Pinceis de Maquiagem"/>
+    <x v="2"/>
+    <x v="8"/>
     <n v="116.52"/>
     <n v="3"/>
     <n v="349.56"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Vestido Infantil"/>
+    <x v="3"/>
+    <x v="9"/>
     <n v="59.9"/>
     <n v="2"/>
     <n v="119.8"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Calça Bailarina"/>
+    <x v="1"/>
+    <x v="10"/>
     <n v="46.9"/>
     <n v="2"/>
     <n v="93.8"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Camisa Térmica"/>
+    <x v="2"/>
+    <x v="11"/>
     <n v="41.9"/>
     <n v="2"/>
     <n v="83.8"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Sapato Social"/>
+    <x v="3"/>
+    <x v="12"/>
     <n v="81.900000000000006"/>
     <n v="4"/>
     <n v="327.60000000000002"/>
   </r>
   <r>
-    <s v="Yamcha"/>
     <x v="6"/>
-    <s v="Kit de Pinceis de Maquiagem"/>
+    <x v="6"/>
+    <x v="8"/>
     <n v="116.52"/>
     <n v="3"/>
     <n v="349.56"/>
   </r>
   <r>
-    <s v="Yamcha"/>
     <x v="6"/>
-    <s v="Vestido Infantil"/>
+    <x v="6"/>
+    <x v="9"/>
     <n v="59.9"/>
     <n v="2"/>
     <n v="119.8"/>
   </r>
   <r>
-    <s v="Kuririn"/>
     <x v="7"/>
-    <s v="Boné"/>
+    <x v="7"/>
+    <x v="15"/>
     <n v="40"/>
     <n v="3"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="Kuririn"/>
     <x v="7"/>
-    <s v="Relógio"/>
+    <x v="7"/>
+    <x v="16"/>
     <n v="390"/>
     <n v="2"/>
     <n v="780"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Bermuda Masculino"/>
+    <x v="5"/>
+    <x v="3"/>
     <n v="148.56"/>
     <n v="2"/>
     <n v="297.12"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Camisa Masculina"/>
+    <x v="5"/>
+    <x v="2"/>
     <n v="153.4"/>
     <n v="1"/>
     <n v="153.4"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Chinelo"/>
+    <x v="5"/>
+    <x v="17"/>
     <n v="40"/>
     <n v="3"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="Vegeta"/>
     <x v="4"/>
-    <s v="Sapato Social"/>
+    <x v="4"/>
+    <x v="12"/>
     <n v="81.900000000000006"/>
     <n v="8"/>
     <n v="655.20000000000005"/>
   </r>
   <r>
-    <s v="Vegeta"/>
     <x v="4"/>
-    <s v="Camisa Masculina"/>
+    <x v="4"/>
+    <x v="2"/>
     <n v="153.4"/>
     <n v="1"/>
     <n v="153.4"/>
   </r>
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Tênis Feminino"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="89.99"/>
     <n v="3"/>
     <n v="269.96999999999997"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Calça Feminina Jogger"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="69.989999999999995"/>
     <n v="5"/>
     <n v="349.95"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Camisa Masculina"/>
+    <x v="2"/>
+    <x v="2"/>
     <n v="153.4"/>
     <n v="1"/>
     <n v="153.4"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Bermuda Masculino"/>
+    <x v="3"/>
+    <x v="3"/>
     <n v="148.56"/>
     <n v="9"/>
     <n v="1337.04"/>
   </r>
   <r>
-    <s v="Vegeta"/>
     <x v="4"/>
-    <s v="Camisa Masculina Festa Balada"/>
+    <x v="4"/>
+    <x v="4"/>
     <n v="146.13999999999999"/>
     <n v="1"/>
     <n v="146.13999999999999"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Bota Masculina"/>
+    <x v="5"/>
+    <x v="5"/>
     <n v="224.14"/>
     <n v="4"/>
     <n v="896.56"/>
   </r>
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Jaqueta Masculina Preta"/>
+    <x v="0"/>
+    <x v="6"/>
     <n v="150.5"/>
     <n v="4"/>
     <n v="602"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Bolsa de Trabalho"/>
+    <x v="1"/>
+    <x v="7"/>
     <n v="248.73"/>
     <n v="1"/>
     <n v="248.73"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Kit de Pinceis de Maquiagem"/>
+    <x v="2"/>
+    <x v="8"/>
     <n v="116.52"/>
     <n v="1"/>
     <n v="116.52"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Vestido Infantil"/>
+    <x v="3"/>
+    <x v="9"/>
     <n v="59.9"/>
     <n v="1"/>
     <n v="59.9"/>
   </r>
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Calça Bailarina"/>
+    <x v="0"/>
+    <x v="10"/>
     <n v="46.9"/>
     <n v="1"/>
     <n v="46.9"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Camisa Térmica"/>
+    <x v="1"/>
+    <x v="11"/>
     <n v="41.9"/>
     <n v="4"/>
     <n v="167.6"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Sapato Social"/>
+    <x v="2"/>
+    <x v="12"/>
     <n v="81.900000000000006"/>
     <n v="9"/>
     <n v="737.1"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Sapatilha Sapato"/>
+    <x v="3"/>
+    <x v="13"/>
     <n v="55.9"/>
     <n v="2"/>
     <n v="111.8"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Colar Pingente"/>
+    <x v="1"/>
+    <x v="14"/>
     <n v="678"/>
     <n v="1"/>
     <n v="678"/>
   </r>
   <r>
-    <s v="Yamcha"/>
     <x v="6"/>
-    <s v="Tênis Feminino"/>
+    <x v="6"/>
+    <x v="0"/>
     <n v="89.99"/>
     <n v="1"/>
     <n v="89.99"/>
   </r>
   <r>
-    <s v="Kuririn"/>
     <x v="7"/>
-    <s v="Calça Feminina Jogger"/>
+    <x v="7"/>
+    <x v="1"/>
     <n v="69.989999999999995"/>
     <n v="1"/>
     <n v="69.989999999999995"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Camisa Masculina"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="153.4"/>
     <n v="2"/>
     <n v="306.8"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Bermuda Masculino"/>
+    <x v="2"/>
+    <x v="3"/>
     <n v="148.56"/>
     <n v="6"/>
     <n v="891.36"/>
   </r>
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Camisa Masculina Festa Balada"/>
+    <x v="0"/>
+    <x v="4"/>
     <n v="146.13999999999999"/>
     <n v="1"/>
     <n v="146.13999999999999"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Bota Masculina"/>
+    <x v="5"/>
+    <x v="5"/>
     <n v="224.14"/>
     <n v="1"/>
     <n v="224.14"/>
   </r>
   <r>
-    <s v="Piccolo"/>
     <x v="0"/>
-    <s v="Jaqueta Masculina Preta"/>
+    <x v="0"/>
+    <x v="6"/>
     <n v="150.5"/>
     <n v="5"/>
     <n v="752.5"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Bolsa de Trabalho"/>
+    <x v="1"/>
+    <x v="7"/>
     <n v="248.73"/>
     <n v="2"/>
     <n v="497.46"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Kit de Pinceis de Maquiagem"/>
+    <x v="2"/>
+    <x v="8"/>
     <n v="116.52"/>
     <n v="3"/>
     <n v="349.56"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Vestido Infantil"/>
+    <x v="3"/>
+    <x v="9"/>
     <n v="59.9"/>
     <n v="2"/>
     <n v="119.8"/>
   </r>
   <r>
-    <s v="Tenshinhan"/>
     <x v="1"/>
-    <s v="Calça Bailarina"/>
+    <x v="1"/>
+    <x v="10"/>
     <n v="46.9"/>
     <n v="2"/>
     <n v="93.8"/>
   </r>
   <r>
-    <s v="Gohan"/>
     <x v="2"/>
-    <s v="Camisa Térmica"/>
+    <x v="2"/>
+    <x v="11"/>
     <n v="41.9"/>
     <n v="2"/>
     <n v="83.8"/>
   </r>
   <r>
-    <s v="Bulma"/>
     <x v="3"/>
-    <s v="Sapato Social"/>
+    <x v="3"/>
+    <x v="12"/>
     <n v="81.900000000000006"/>
     <n v="4"/>
     <n v="327.60000000000002"/>
   </r>
   <r>
-    <s v="Yamcha"/>
     <x v="6"/>
-    <s v="Kit de Pinceis de Maquiagem"/>
+    <x v="6"/>
+    <x v="8"/>
     <n v="116.52"/>
     <n v="3"/>
     <n v="349.56"/>
   </r>
   <r>
-    <s v="Yamcha"/>
     <x v="6"/>
-    <s v="Vestido Infantil"/>
+    <x v="6"/>
+    <x v="9"/>
     <n v="59.9"/>
     <n v="2"/>
     <n v="119.8"/>
   </r>
   <r>
-    <s v="Kuririn"/>
     <x v="7"/>
-    <s v="Boné"/>
+    <x v="7"/>
+    <x v="15"/>
     <n v="40"/>
     <n v="3"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="Kuririn"/>
     <x v="7"/>
-    <s v="Relógio"/>
+    <x v="7"/>
+    <x v="16"/>
     <n v="390"/>
     <n v="2"/>
     <n v="780"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Bermuda Masculino"/>
+    <x v="5"/>
+    <x v="3"/>
     <n v="148.56"/>
     <n v="2"/>
     <n v="297.12"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Camisa Masculina"/>
+    <x v="5"/>
+    <x v="2"/>
     <n v="153.4"/>
     <n v="1"/>
     <n v="153.4"/>
   </r>
   <r>
-    <s v="Goku"/>
     <x v="5"/>
-    <s v="Chinelo"/>
+    <x v="5"/>
+    <x v="17"/>
     <n v="40"/>
     <n v="3"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="Vegeta"/>
     <x v="4"/>
-    <s v="Sapato Social"/>
+    <x v="4"/>
+    <x v="12"/>
     <n v="81.900000000000006"/>
     <n v="8"/>
     <n v="655.20000000000005"/>
   </r>
   <r>
-    <s v="Vegeta"/>
     <x v="4"/>
-    <s v="Camisa Masculina"/>
+    <x v="4"/>
+    <x v="2"/>
     <n v="153.4"/>
     <n v="1"/>
     <n v="153.4"/>
@@ -3943,6 +4164,147 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A42AF91-4F15-46E8-A6A5-1AE6D734F80F}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="E3:H8" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="19">
+        <item x="3"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Soma de Unidades Vendidas" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58316C52-885D-46F8-B047-DE9EE4C43985}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4022,6 +4384,34 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{38E125DD-7128-41C3-AB1F-8D52E0898DE0}" sourceName="Vendedor">
+  <pivotTables>
+    <pivotTable tabId="11" name="Tabela dinâmica2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="403324215">
+      <items count="8">
+        <i x="3"/>
+        <i x="2"/>
+        <i x="5" s="1"/>
+        <i x="7"/>
+        <i x="0"/>
+        <i x="1"/>
+        <i x="4"/>
+        <i x="6"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Vendedor" xr10:uid="{1EA857BC-A245-4CDB-907A-A9056D595D0D}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="245835"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4338,67 +4728,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6710ABAB-C183-4855-AC68-233BF3C10A8E}">
-  <dimension ref="A3:B12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="4">
         <v>4663.4800000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="20">
+        <v>4</v>
+      </c>
+      <c r="H4" s="20">
+        <v>594.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="4">
         <v>4096.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20">
+        <v>10</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2241.3999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4">
         <v>3912.28</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="20">
+        <v>2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>306.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="4">
         <v>3635.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20">
+        <v>6</v>
+      </c>
+      <c r="H7" s="20">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>3382.4399999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="20">
+        <v>22</v>
+      </c>
+      <c r="H8" s="20">
+        <v>3382.4399999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -4406,7 +4877,7 @@
         <v>1939.98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -4414,7 +4885,7 @@
         <v>1909.4800000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -4422,7 +4893,7 @@
         <v>1118.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -6213,7 +6684,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E72246-3E3E-4757-B329-DDAE84473E4F}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -6228,16 +6699,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:10" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4"/>
@@ -6289,9 +6760,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E9FE5E-183C-4D1E-8F83-D7BBF136064A}">
-  <dimension ref="A8:O22"/>
+  <dimension ref="A3:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6304,56 +6777,73 @@
     <col min="15" max="15" width="12.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:15" ht="28.3" x14ac:dyDescent="0.75">
+      <c r="C3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+    </row>
     <row r="8" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="str">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15" t="str">
         <f>'Tabela Dinâmica'!A4</f>
         <v>Gohan</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="J8" s="9">
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="J8" s="12">
         <v>5</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11" t="str">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="15" t="str">
         <f>'Tabela Dinâmica'!A8</f>
         <v>Goku</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="14">
+      <c r="G9" s="7"/>
+      <c r="H9" s="9">
         <f>GETPIVOTDATA("Total",'Tabela Dinâmica'!$A$3,"Vendedor Repetido","Gohan")</f>
         <v>4663.4800000000005</v>
       </c>
       <c r="J9" s="13"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="14">
+      <c r="N9" s="7"/>
+      <c r="O9" s="9">
         <f>'Tabela Dinâmica'!$B$8</f>
         <v>3382.4399999999996</v>
       </c>
@@ -6362,223 +6852,248 @@
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="17">
+        <f>H9/2000</f>
+        <v>2.3317400000000004</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="18">
+        <f>O9/2000</f>
+        <v>1.6912199999999997</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="9">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="str">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="15" t="str">
         <f>'Tabela Dinâmica'!A5</f>
         <v>Tenshinhan</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="J12" s="9">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="J12" s="12">
         <v>6</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11" t="str">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="15" t="str">
         <f>'Tabela Dinâmica'!A9</f>
         <v>Kuririn</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="13"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="14">
+      <c r="G13" s="7"/>
+      <c r="H13" s="9">
         <f>'Tabela Dinâmica'!$B$5</f>
         <v>4096.58</v>
       </c>
       <c r="J13" s="13"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8" t="s">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="14">
+      <c r="N13" s="7"/>
+      <c r="O13" s="9">
         <f>'Tabela Dinâmica'!$B$9</f>
         <v>1939.98</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="18">
+        <f>H13/2000</f>
+        <v>2.0482900000000002</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="18">
+        <f>O13/2000</f>
+        <v>0.96999000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C16" s="9">
+      <c r="C16" s="12">
         <v>3</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11" t="str">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="15" t="str">
         <f>'Tabela Dinâmica'!A6</f>
         <v>Bulma</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="J16" s="9">
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="J16" s="12">
         <v>7</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11" t="str">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="15" t="str">
         <f>'Tabela Dinâmica'!A10</f>
         <v>Vegeta</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="3:15" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C17" s="13"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="14">
+      <c r="G17" s="7"/>
+      <c r="H17" s="9">
         <f>'Tabela Dinâmica'!$B$6</f>
         <v>3912.28</v>
       </c>
       <c r="J17" s="13"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8" t="s">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="14">
+      <c r="N17" s="7"/>
+      <c r="O17" s="9">
         <f>'Tabela Dinâmica'!$B$10</f>
         <v>1909.4800000000002</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="18">
+        <f>H17/2000</f>
+        <v>1.95614</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="18">
+        <f>O17/2000</f>
+        <v>0.95474000000000014</v>
+      </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C20" s="9">
+      <c r="C20" s="12">
         <v>4</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11" t="str">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="15" t="str">
         <f>'Tabela Dinâmica'!A7</f>
         <v>Piccolo</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="9">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="J20" s="12">
         <v>8</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11" t="str">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="15" t="str">
         <f>'Tabela Dinâmica'!A11</f>
         <v>Yamcha</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="3:15" ht="15.9" x14ac:dyDescent="0.45">
       <c r="C21" s="13"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="14">
+      <c r="G21" s="7"/>
+      <c r="H21" s="9">
         <f>'Tabela Dinâmica'!$B$7</f>
         <v>3635.02</v>
       </c>
       <c r="J21" s="13"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8" t="s">
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="14">
+      <c r="N21" s="7"/>
+      <c r="O21" s="9">
         <f>'Tabela Dinâmica'!$B$11</f>
         <v>1118.7</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="18">
+        <f>H21/2000</f>
+        <v>1.81751</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="18">
+        <f>O21/2000</f>
+        <v>0.55935000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="C3:O3"/>
     <mergeCell ref="J20:J22"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="C20:C22"/>
@@ -6608,11 +7123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77090BE-ED75-4D47-9E38-AEF66F206E68}">
-  <dimension ref="A8:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77090BE-ED75-4D47-9E38-AEF66F206E68}">
+  <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6620,22 +7135,44 @@
     <col min="1" max="1" width="26.69140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="35.6" x14ac:dyDescent="0.9">
+      <c r="F2" s="21" t="str">
+        <f>'Tabela Dinâmica'!F1</f>
+        <v>Goku</v>
+      </c>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" location="'Vendedores TOP3'!A1" display="01 - Vendedor TOP3" xr:uid="{2688396A-DA97-4BF2-8216-AB67EE220792}"/>
     <hyperlink ref="A9" location="'Rank Vendas'!A1" display="02 - Rank Vendas" xr:uid="{AF5C8F37-525B-4661-A2A6-99F15F66E6D2}"/>
@@ -6643,6 +7180,14 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Excel/078_Dashboard+Dados3.xlsx
+++ b/Excel/078_Dashboard+Dados3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D28542-46DB-498F-84F1-0AAC703EA910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EDD59A-E88F-4F6F-9EA3-35700A29E9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="753" firstSheet="2" activeTab="5" xr2:uid="{23D2CAF9-2782-440E-8280-5351985CC5A7}"/>
   </bookViews>
@@ -42,6 +42,15 @@
     <definedName name="Kit_de_Pinceis_de_Maquiagem">'Imagens Produtos'!$C$14</definedName>
     <definedName name="Kuririn">Personagens!$B$5</definedName>
     <definedName name="Piccolo">Personagens!$B$6</definedName>
+    <definedName name="Produto1">INDIRECT(Resumo!$E$9)</definedName>
+    <definedName name="Produto2">INDIRECT(Resumo!$E$10)</definedName>
+    <definedName name="Produto3">INDIRECT(Resumo!$E$11)</definedName>
+    <definedName name="Produto4">INDIRECT(Resumo!$E$12)</definedName>
+    <definedName name="Produto5">INDIRECT(Resumo!$E$13)</definedName>
+    <definedName name="Produto6">INDIRECT(Resumo!$E$14)</definedName>
+    <definedName name="Produto7">INDIRECT(Resumo!$E$15)</definedName>
+    <definedName name="Produto8">INDIRECT(Resumo!$E$16)</definedName>
+    <definedName name="Produto9">INDIRECT(Resumo!$E$17)</definedName>
     <definedName name="Rank1">INDIRECT('Tabela Dinâmica'!$A$4)</definedName>
     <definedName name="Rank2">INDIRECT('Tabela Dinâmica'!$A$5)</definedName>
     <definedName name="Rank3">INDIRECT('Tabela Dinâmica'!$A$6)</definedName>
@@ -51,7 +60,7 @@
     <definedName name="Rank7">INDIRECT('Tabela Dinâmica'!$A$10)</definedName>
     <definedName name="Rank8">INDIRECT('Tabela Dinâmica'!$A$11)</definedName>
     <definedName name="Relógio">'Imagens Produtos'!$C$15</definedName>
-    <definedName name="ResumoVendedor">INDIRECT(Resumo!$F$2)</definedName>
+    <definedName name="ResumoVendedor">INDIRECT(Resumo!$E$2)</definedName>
     <definedName name="Sapatilha_Sapato">'Imagens Produtos'!$C$16</definedName>
     <definedName name="Sapato_Social">'Imagens Produtos'!$C$17</definedName>
     <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
@@ -64,7 +73,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="60">
   <si>
     <t>Vendedor</t>
   </si>
@@ -262,9 +271,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>Unidades</t>
-  </si>
-  <si>
     <t>Soma de Unidades Vendidas</t>
   </si>
 </sst>
@@ -275,7 +281,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -358,14 +364,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +391,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -528,6 +541,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -535,7 +563,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,7 +581,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,14 +604,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1692,7 +1743,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s4123"/>
+                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s4138"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1757,7 +1808,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s4124"/>
+                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s4139"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2041,7 +2092,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s4125"/>
+                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s4140"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2436,7 +2487,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s6187"/>
+                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s6227"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2496,7 +2547,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s6188"/>
+                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s6228"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2556,7 +2607,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s6189"/>
+                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s6229"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2616,7 +2667,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank4" spid="_x0000_s6190"/>
+                  <a14:cameraTool cellRange="Rank4" spid="_x0000_s6230"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2676,7 +2727,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank5" spid="_x0000_s6191"/>
+                  <a14:cameraTool cellRange="Rank5" spid="_x0000_s6231"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2736,7 +2787,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank6" spid="_x0000_s6192"/>
+                  <a14:cameraTool cellRange="Rank6" spid="_x0000_s6232"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2796,7 +2847,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank7" spid="_x0000_s6193"/>
+                  <a14:cameraTool cellRange="Rank7" spid="_x0000_s6233"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2856,7 +2907,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank8" spid="_x0000_s6194"/>
+                  <a14:cameraTool cellRange="Rank8" spid="_x0000_s6234"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2908,8 +2959,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1377041</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>53973</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2955,16 +3006,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>293914</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>43543</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>648301</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>130628</xdr:rowOff>
+          <xdr:colOff>1595358</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2979,7 +3030,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ResumoVendedor" spid="_x0000_s7170"/>
+                  <a14:cameraTool cellRange="ResumoVendedor" spid="_x0000_s7194"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2993,7 +3044,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2541814" y="185057"/>
+              <a:off x="3488871" y="43543"/>
               <a:ext cx="1301444" cy="1137557"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3018,16 +3069,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>217716</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>77554</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>87088</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6798</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3063,7 +3114,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7766957" y="185057"/>
+              <a:off x="7271659" y="1692729"/>
               <a:ext cx="1828800" cy="2564940"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3094,6 +3145,591 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>16329</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>32656</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>6852</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Imagem 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69505CA1-8273-41E7-AC91-277C328FEC7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto1" spid="_x0000_s7195"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2558143" y="1899557"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>16327</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>6853</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Imagem 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D86ACEE-80E6-48FD-9598-2AAD8F6DCE79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto2" spid="_x0000_s7196"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2541814" y="2498271"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>16327</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>6852</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Imagem 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A4329D-B3C3-49D2-A7C0-5C234D5B10E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto3" spid="_x0000_s7197"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2541814" y="3205843"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>16327</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>6853</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Imagem 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7952EFED-7843-4DBF-9C7F-7ED803FC1F28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto4" spid="_x0000_s7198"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2541814" y="3913414"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>16327</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>6852</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Imagem 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD6BD8D-8C3D-41A6-BD08-D410801BAE3C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto5" spid="_x0000_s7199"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2541814" y="4620986"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>16327</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>6852</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Imagem 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0936BDA2-634A-46C3-8970-0A4BC30C764F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto6" spid="_x0000_s7200"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2541814" y="5328557"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>16327</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>6853</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Imagem 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D8A300-9A61-42CF-B440-8EC4CD9BBD57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto7" spid="_x0000_s7201"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2541814" y="6036129"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>16327</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>6852</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Imagem 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE757ADB-E3A7-4A5A-AAD9-2B1310017C8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto8" spid="_x0000_s7202"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2541814" y="6743700"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>16327</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>6853</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Imagem 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA6E426-EB2C-4E07-9F3F-89C2903F43C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto9" spid="_x0000_s7203"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2541814" y="7451271"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4164,7 +4800,89 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A42AF91-4F15-46E8-A6A5-1AE6D734F80F}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58316C52-885D-46F8-B047-DE9EE4C43985}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="9">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A42AF91-4F15-46E8-A6A5-1AE6D734F80F}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="E3:H8" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
@@ -4258,17 +4976,17 @@
   </rowFields>
   <rowItems count="5">
     <i>
-      <x v="2"/>
+      <x/>
       <x/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="14"/>
     </i>
     <i r="1">
-      <x v="6"/>
+      <x v="15"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="17"/>
     </i>
     <i t="grand">
       <x/>
@@ -4286,7 +5004,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="2" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Soma de Unidades Vendidas" fld="4" baseField="0" baseItem="0"/>
@@ -4304,88 +5022,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58316C52-885D-46F8-B047-DE9EE4C43985}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="9">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{38E125DD-7128-41C3-AB1F-8D52E0898DE0}" sourceName="Vendedor">
   <pivotTables>
@@ -4394,9 +5030,9 @@
   <data>
     <tabular pivotCacheId="403324215">
       <items count="8">
-        <i x="3"/>
+        <i x="3" s="1"/>
         <i x="2"/>
-        <i x="5" s="1"/>
+        <i x="5"/>
         <i x="7"/>
         <i x="0"/>
         <i x="1"/>
@@ -4410,7 +5046,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Vendedor" xr10:uid="{1EA857BC-A245-4CDB-907A-A9056D595D0D}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="245835"/>
+  <slicer name="Vendedor" xr10:uid="{1EA857BC-A245-4CDB-907A-A9056D595D0D}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" style="SlicerStyleLight6" rowHeight="245835"/>
 </slicers>
 </file>
 
@@ -4730,7 +5366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6710ABAB-C183-4855-AC68-233BF3C10A8E}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4749,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -4766,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
         <v>50</v>
@@ -4780,16 +5416,16 @@
         <v>4663.4800000000005</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="20">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H4" s="20">
-        <v>594.24</v>
+        <v>2674.08</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -4800,16 +5436,16 @@
         <v>4096.58</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G5" s="20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H5" s="20">
-        <v>2241.3999999999996</v>
+        <v>223.6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -4820,16 +5456,16 @@
         <v>3912.28</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G6" s="20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" s="20">
-        <v>306.8</v>
+        <v>655.20000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -4840,16 +5476,16 @@
         <v>3635.02</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G7" s="20">
         <v>6</v>
       </c>
       <c r="H7" s="20">
-        <v>240</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -4863,10 +5499,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="20">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H8" s="20">
-        <v>3382.4399999999996</v>
+        <v>3912.28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -6508,7 +7144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFCAC6-0F36-4D13-9465-0B40612D0A46}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -6699,16 +7335,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:10" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4"/>
@@ -6778,54 +7414,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="28.3" x14ac:dyDescent="0.75">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="8" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="15">
         <v>1</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="15" t="str">
+      <c r="F8" s="18" t="str">
         <f>'Tabela Dinâmica'!A4</f>
         <v>Gohan</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="J8" s="12">
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="15">
         <v>5</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="15" t="str">
+      <c r="M8" s="18" t="str">
         <f>'Tabela Dinâmica'!A8</f>
         <v>Goku</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -6836,7 +7472,7 @@
         <f>GETPIVOTDATA("Total",'Tabela Dinâmica'!$A$3,"Vendedor Repetido","Gohan")</f>
         <v>4663.4800000000005</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
@@ -6852,55 +7488,55 @@
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="17">
+      <c r="H10" s="11">
         <f>H9/2000</f>
         <v>2.3317400000000004</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N10" s="10"/>
-      <c r="O10" s="18">
+      <c r="O10" s="12">
         <f>O9/2000</f>
         <v>1.6912199999999997</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="12">
+      <c r="C12" s="15">
         <v>2</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="15" t="str">
+      <c r="F12" s="18" t="str">
         <f>'Tabela Dinâmica'!A5</f>
         <v>Tenshinhan</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="J12" s="12">
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="J12" s="15">
         <v>6</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="15" t="str">
+      <c r="M12" s="18" t="str">
         <f>'Tabela Dinâmica'!A9</f>
         <v>Kuririn</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="13"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
@@ -6911,7 +7547,7 @@
         <f>'Tabela Dinâmica'!$B$5</f>
         <v>4096.58</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
@@ -6924,55 +7560,55 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="14"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="18">
+      <c r="H14" s="12">
         <f>H13/2000</f>
         <v>2.0482900000000002</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N14" s="10"/>
-      <c r="O14" s="18">
+      <c r="O14" s="12">
         <f>O13/2000</f>
         <v>0.96999000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C16" s="12">
+      <c r="C16" s="15">
         <v>3</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="15" t="str">
+      <c r="F16" s="18" t="str">
         <f>'Tabela Dinâmica'!A6</f>
         <v>Bulma</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="J16" s="12">
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="J16" s="15">
         <v>7</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="15" t="str">
+      <c r="M16" s="18" t="str">
         <f>'Tabela Dinâmica'!A10</f>
         <v>Vegeta</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="3:15" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C17" s="13"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
@@ -6983,7 +7619,7 @@
         <f>'Tabela Dinâmica'!$B$6</f>
         <v>3912.28</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
@@ -6996,55 +7632,55 @@
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C18" s="14"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="18">
+      <c r="H18" s="12">
         <f>H17/2000</f>
         <v>1.95614</v>
       </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="18">
+      <c r="O18" s="12">
         <f>O17/2000</f>
         <v>0.95474000000000014</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C20" s="12">
+      <c r="C20" s="15">
         <v>4</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="15" t="str">
+      <c r="F20" s="18" t="str">
         <f>'Tabela Dinâmica'!A7</f>
         <v>Piccolo</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="J20" s="12">
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="J20" s="15">
         <v>8</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="15" t="str">
+      <c r="M20" s="18" t="str">
         <f>'Tabela Dinâmica'!A11</f>
         <v>Yamcha</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
     </row>
     <row r="21" spans="3:15" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C21" s="13"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
@@ -7055,7 +7691,7 @@
         <f>'Tabela Dinâmica'!$B$7</f>
         <v>3635.02</v>
       </c>
-      <c r="J21" s="13"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
@@ -7068,31 +7704,32 @@
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C22" s="14"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="18">
+      <c r="H22" s="12">
         <f>H21/2000</f>
         <v>1.81751</v>
       </c>
-      <c r="J22" s="14"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="18">
+      <c r="O22" s="12">
         <f>O21/2000</f>
         <v>0.55935000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="J20:J22"/>
     <mergeCell ref="M20:O20"/>
@@ -7109,7 +7746,6 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" location="'Vendedores TOP3'!A1" display="01 - Vendedor TOP3" xr:uid="{8AE732FF-72D4-4ABD-9483-82061B8CEC05}"/>
@@ -7124,59 +7760,320 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77090BE-ED75-4D47-9E38-AEF66F206E68}">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.69140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.3828125" customWidth="1"/>
+    <col min="4" max="4" width="24.61328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.61328125" style="23" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.15234375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.61328125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="35.6" x14ac:dyDescent="0.9">
-      <c r="F2" s="21" t="str">
+    <row r="2" spans="1:9" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="E2" s="26" t="str">
         <f>'Tabela Dinâmica'!F1</f>
-        <v>Goku</v>
-      </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+        <v>Bulma</v>
+      </c>
+      <c r="F2" s="27" t="str">
+        <f>'Tabela Dinâmica'!F1</f>
+        <v>Bulma</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="C8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>53</v>
+    <row r="9" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="21"/>
+      <c r="D9" s="25" t="str">
+        <f t="array" ref="D9">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B1)),2),"")</f>
+        <v>Bermuda Masculino</v>
+      </c>
+      <c r="E9" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D9,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Bermuda_Masculino</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="array" ref="F9">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C1)),3),"")</f>
+        <v>18</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="array" ref="G9">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D1)),4),"")</f>
+        <v>2674.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="21"/>
+      <c r="D10" s="25" t="str">
+        <f t="array" ref="D10">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B2)),2),"")</f>
+        <v>Sapatilha Sapato</v>
+      </c>
+      <c r="E10" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D10,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Sapatilha_Sapato</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="array" ref="F10">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C2)),3),"")</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="array" ref="G10">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D2)),4),"")</f>
+        <v>223.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="21"/>
+      <c r="D11" s="25" t="str">
+        <f t="array" ref="D11">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B3)),2),"")</f>
+        <v>Sapato Social</v>
+      </c>
+      <c r="E11" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D11,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Sapato_Social</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="array" ref="F11">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C3)),3),"")</f>
+        <v>8</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="array" ref="G11">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D3)),4),"")</f>
+        <v>655.20000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="21"/>
+      <c r="D12" s="25" t="str">
+        <f t="array" ref="D12">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B4)),2),"")</f>
+        <v>Vestido Infantil</v>
+      </c>
+      <c r="E12" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D12,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vestido_Infantil</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="array" ref="F12">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C4)),3),"")</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="array" ref="G12">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D4)),4),"")</f>
+        <v>359.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="21"/>
+      <c r="D13" s="25" t="str">
+        <f t="array" ref="D13">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B5)),2),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D13,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vazio</v>
+      </c>
+      <c r="F13" s="25" t="str">
+        <f t="array" ref="F13">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C5)),3),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="30" t="str">
+        <f t="array" ref="G13">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D5)),4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="21"/>
+      <c r="D14" s="25" t="str">
+        <f t="array" ref="D14">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B6)),2),"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D14,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vazio</v>
+      </c>
+      <c r="F14" s="25" t="str">
+        <f t="array" ref="F14">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C6)),3),"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="30" t="str">
+        <f t="array" ref="G14">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D6)),4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="21"/>
+      <c r="D15" s="25" t="str">
+        <f t="array" ref="D15">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B7)),2),"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D15,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vazio</v>
+      </c>
+      <c r="F15" s="25" t="str">
+        <f t="array" ref="F15">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C7)),3),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="30" t="str">
+        <f t="array" ref="G15">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D7)),4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="21"/>
+      <c r="D16" s="25" t="str">
+        <f t="array" ref="D16">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B8)),2),"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D16,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vazio</v>
+      </c>
+      <c r="F16" s="25" t="str">
+        <f t="array" ref="F16">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C8)),3),"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="30" t="str">
+        <f t="array" ref="G16">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D8)),4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="21"/>
+      <c r="D17" s="25" t="str">
+        <f t="array" ref="D17">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B9)),2),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D17,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vazio</v>
+      </c>
+      <c r="F17" s="25" t="str">
+        <f t="array" ref="F17">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C9)),3),"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="30" t="str">
+        <f t="array" ref="G17">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D9)),4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="21"/>
+      <c r="D18" s="25" t="str">
+        <f t="array" ref="D18">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B10)),2),"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D18,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vazio</v>
+      </c>
+      <c r="F18" s="25" t="str">
+        <f t="array" ref="F18">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C10)),3),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="30" t="str">
+        <f t="array" ref="G18">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D10)),4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="21"/>
+      <c r="D19" s="25" t="str">
+        <f t="array" ref="D19">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B11)),2),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D19,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vazio</v>
+      </c>
+      <c r="F19" s="25" t="str">
+        <f t="array" ref="F19">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C11)),3),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="30" t="str">
+        <f t="array" ref="G19">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D11)),4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="21"/>
+      <c r="D20" s="25" t="str">
+        <f t="array" ref="D20">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B12)),2),"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D20,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vazio</v>
+      </c>
+      <c r="F20" s="25" t="str">
+        <f t="array" ref="F20">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C12)),3),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="30" t="str">
+        <f t="array" ref="G20">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D12)),4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="21"/>
+      <c r="D21" s="25" t="str">
+        <f t="array" ref="D21">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B13)),2),"")</f>
+        <v/>
+      </c>
+      <c r="E21" s="25" t="str">
+        <f>IFERROR(VLOOKUP(D21,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Vazio</v>
+      </c>
+      <c r="F21" s="25" t="str">
+        <f t="array" ref="F21">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C13)),3),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="30" t="str">
+        <f t="array" ref="G21">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D13)),4),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'Vendedores TOP3'!A1" display="01 - Vendedor TOP3" xr:uid="{2688396A-DA97-4BF2-8216-AB67EE220792}"/>
-    <hyperlink ref="A9" location="'Rank Vendas'!A1" display="02 - Rank Vendas" xr:uid="{AF5C8F37-525B-4661-A2A6-99F15F66E6D2}"/>
-    <hyperlink ref="A10" location="Resumo!A1" display="03 - Resumo" xr:uid="{25346F7D-0456-40DE-ADB8-F453BF913CDF}"/>
+    <hyperlink ref="A5" location="'Vendedores TOP3'!A1" display="01 - Vendedor TOP3" xr:uid="{2688396A-DA97-4BF2-8216-AB67EE220792}"/>
+    <hyperlink ref="A6" location="'Rank Vendas'!A1" display="02 - Rank Vendas" xr:uid="{AF5C8F37-525B-4661-A2A6-99F15F66E6D2}"/>
+    <hyperlink ref="A7" location="Resumo!A1" display="03 - Resumo" xr:uid="{25346F7D-0456-40DE-ADB8-F453BF913CDF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Excel/078_Dashboard+Dados3.xlsx
+++ b/Excel/078_Dashboard+Dados3.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EDD59A-E88F-4F6F-9EA3-35700A29E9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8126E17F-A53A-43A7-82F5-9BD0E391E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="753" firstSheet="2" activeTab="5" xr2:uid="{23D2CAF9-2782-440E-8280-5351985CC5A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="753" firstSheet="3" activeTab="5" xr2:uid="{23D2CAF9-2782-440E-8280-5351985CC5A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabela Dinâmica" sheetId="11" r:id="rId1"/>
-    <sheet name="Dados" sheetId="8" r:id="rId2"/>
-    <sheet name="Imagens Produtos" sheetId="7" r:id="rId3"/>
+    <sheet name="Tabela Dinâmica" sheetId="11" state="hidden" r:id="rId1"/>
+    <sheet name="Dados" sheetId="8" state="hidden" r:id="rId2"/>
+    <sheet name="Imagens Produtos" sheetId="7" state="hidden" r:id="rId3"/>
     <sheet name="Vendedores TOP3" sheetId="10" r:id="rId4"/>
     <sheet name="Rank Vendas" sheetId="12" r:id="rId5"/>
     <sheet name="Resumo" sheetId="13" r:id="rId6"/>
-    <sheet name="Personagens" sheetId="9" r:id="rId7"/>
+    <sheet name="Personagens" sheetId="9" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Imagens Produtos'!$B$1:$B$19</definedName>
@@ -73,7 +73,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="60">
   <si>
     <t>Vendedor</t>
   </si>
@@ -583,7 +583,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -598,39 +627,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -656,7 +656,1154 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[078_Dashboard+Dados3.xlsx]Tabela Dinâmica!Tabela dinâmica3</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$K$4:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bolsa de Trabalho</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Calça Bailarina</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Calça Feminina Jogger</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camisa Masculina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camisa Térmica</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Colar Pingente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Dinâmica'!$L$4:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1492.3799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>699.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>613.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>767.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E84-4A96-BF9E-E95AB07A58D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="745947072"/>
+        <c:axId val="757496320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="745947072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757496320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="757496320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00_ ;[Red]\-#,##0.00\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745947072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C11E21-9E79-4DE8-2A8F-5AC413A4607C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440872</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B19F771-3D75-16B7-339B-F445F1973B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13917386" y="299357"/>
+          <a:ext cx="881743" cy="359229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255814</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>484414</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD80BC9E-85E5-41D4-9992-27DA638FDF20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13732328" y="2824843"/>
+          <a:ext cx="881743" cy="359229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1663,7 +2810,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1743,7 +2890,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s4138"/>
+                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s4156"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1808,7 +2955,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s4139"/>
+                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s4157"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2092,7 +3239,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s4140"/>
+                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s4158"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2404,7 +3551,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2487,7 +3634,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s6227"/>
+                  <a14:cameraTool cellRange="Rank1" spid="_x0000_s6275"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2547,7 +3694,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s6228"/>
+                  <a14:cameraTool cellRange="Rank2" spid="_x0000_s6276"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2607,7 +3754,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s6229"/>
+                  <a14:cameraTool cellRange="Rank3" spid="_x0000_s6277"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2667,7 +3814,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank4" spid="_x0000_s6230"/>
+                  <a14:cameraTool cellRange="Rank4" spid="_x0000_s6278"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2727,7 +3874,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank5" spid="_x0000_s6231"/>
+                  <a14:cameraTool cellRange="Rank5" spid="_x0000_s6279"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2787,7 +3934,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank6" spid="_x0000_s6232"/>
+                  <a14:cameraTool cellRange="Rank6" spid="_x0000_s6280"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2847,7 +3994,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank7" spid="_x0000_s6233"/>
+                  <a14:cameraTool cellRange="Rank7" spid="_x0000_s6281"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2907,7 +4054,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Rank8" spid="_x0000_s6234"/>
+                  <a14:cameraTool cellRange="Rank8" spid="_x0000_s6282"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2947,7 +4094,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3030,7 +4177,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ResumoVendedor" spid="_x0000_s7194"/>
+                  <a14:cameraTool cellRange="ResumoVendedor" spid="_x0000_s7274"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3080,8 +4227,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>6798</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Vendedor">
@@ -3104,7 +4251,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3173,7 +4320,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Produto1" spid="_x0000_s7195"/>
+                  <a14:cameraTool cellRange="Produto1" spid="_x0000_s7275"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3215,15 +4362,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>10886</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>16328</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>16327</xdr:colOff>
+          <xdr:colOff>2305</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>6853</xdr:rowOff>
+          <xdr:rowOff>1410</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -3238,7 +4385,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Produto2" spid="_x0000_s7196"/>
+                  <a14:cameraTool cellRange="Produto2" spid="_x0000_s7276"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3252,8 +4399,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2541814" y="2498271"/>
-              <a:ext cx="680356" cy="594681"/>
+              <a:off x="2552700" y="2503714"/>
+              <a:ext cx="655448" cy="572910"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3280,9 +4427,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>12454</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -3303,7 +4450,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Produto3" spid="_x0000_s7197"/>
+                  <a14:cameraTool cellRange="Produto3" spid="_x0000_s7277"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3317,8 +4464,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2541814" y="3205843"/>
-              <a:ext cx="680356" cy="594681"/>
+              <a:off x="2554268" y="3086100"/>
+              <a:ext cx="667902" cy="583795"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3368,7 +4515,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Produto4" spid="_x0000_s7198"/>
+                  <a14:cameraTool cellRange="Produto4" spid="_x0000_s7278"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3433,7 +4580,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Produto5" spid="_x0000_s7199"/>
+                  <a14:cameraTool cellRange="Produto5" spid="_x0000_s7279"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3498,13 +4645,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Produto6" spid="_x0000_s7200"/>
+                  <a14:cameraTool cellRange="Produto6" spid="_x0000_s7280"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3563,13 +4710,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Produto7" spid="_x0000_s7201"/>
+                  <a14:cameraTool cellRange="Produto7" spid="_x0000_s7281"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3628,13 +4775,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Produto8" spid="_x0000_s7202"/>
+                  <a14:cameraTool cellRange="Produto8" spid="_x0000_s7282"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3693,13 +4840,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Produto9" spid="_x0000_s7203"/>
+                  <a14:cameraTool cellRange="Produto9" spid="_x0000_s7283"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -3730,10 +4877,542 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>242892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>332923</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>540136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C9909F-2D4C-4115-9EAE-58EBE1E30605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="5081592"/>
+          <a:ext cx="2912837" cy="1472901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>522515</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>511629</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>549728</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>518481</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Imagem 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C279883-16EC-4FFF-900B-B3ECE8DA6262}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto1" spid="_x0000_s7284"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="8229601" y="4762500"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>283029</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>364672</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>310242</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>371524</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Imagem 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825B92AC-4840-49F1-A82C-A74DB65C2D3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto3" spid="_x0000_s7285"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7336972" y="5203372"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>48987</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>261258</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>268110</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Imagem 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06E92EE-F46F-47CF-AAC3-4F9922B894E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Produto2" spid="_x0000_s7286"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9062358" y="5099958"/>
+              <a:ext cx="680356" cy="594681"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>223159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>566058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$G$9">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CaixaDeTexto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676B112D-6366-4A5D-4600-62DF292085CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8022771" y="4474030"/>
+          <a:ext cx="985158" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{D40A58E8-5491-4E57-8CCA-910ECDF3938E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 1.492,38 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130630</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402773</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>315685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$G$11">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CaixaDeTexto 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DC8F75-83C1-4033-8EFE-29BF5859B36B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7184573" y="4893129"/>
+          <a:ext cx="925286" cy="261256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{5E84002B-AFB9-42C0-8FA7-ACD7576C590E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 699,90 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>522509</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>544286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>125182</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$G$10">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CaixaDeTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F4314A-A848-4445-B547-A2F568B3CFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8882738" y="4795157"/>
+          <a:ext cx="908958" cy="195942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B5991526-2F31-41B2-90A0-C2564861DB3B}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 767,90 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>696295</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>130627</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>590504</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>484413</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Imagem 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636887D9-240D-9E3C-DDC7-1474C4C7722B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Tabela Dinâmica'!$N$3:$U$17" spid="_x0000_s7287"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7042666" y="6732813"/>
+              <a:ext cx="3981795" cy="2117271"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4800,7 +6479,263 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58316C52-885D-46F8-B047-DE9EE4C43985}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FFFCA95-878B-48A6-AE03-E752BCC24235}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="K3:L10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="9">
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="7"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="19">
+        <item x="3"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A42AF91-4F15-46E8-A6A5-1AE6D734F80F}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="E3:H10" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="19">
+        <item x="3"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="5"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Soma de Unidades Vendidas" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58316C52-885D-46F8-B047-DE9EE4C43985}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4881,161 +6816,21 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A42AF91-4F15-46E8-A6A5-1AE6D734F80F}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="E3:H8" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
-      <items count="9">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="19">
-        <item x="3"/>
-        <item x="7"/>
-        <item x="15"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Soma de Unidades Vendidas" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Soma de Total" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{38E125DD-7128-41C3-AB1F-8D52E0898DE0}" sourceName="Vendedor">
   <pivotTables>
     <pivotTable tabId="11" name="Tabela dinâmica2"/>
+    <pivotTable tabId="11" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="403324215">
       <items count="8">
-        <i x="3" s="1"/>
+        <i x="3"/>
         <i x="2"/>
         <i x="5"/>
         <i x="7"/>
         <i x="0"/>
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="4"/>
         <i x="6"/>
       </items>
@@ -5364,10 +7159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6710ABAB-C183-4855-AC68-233BF3C10A8E}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5375,20 +7170,22 @@
     <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.53515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -5407,8 +7204,14 @@
       <c r="H3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -5416,19 +7219,25 @@
         <v>4663.4800000000005</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="20">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20">
-        <v>2674.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="G4" s="30">
+        <v>6</v>
+      </c>
+      <c r="H4" s="30">
+        <v>1492.3799999999999</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1492.3799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -5436,19 +7245,25 @@
         <v>4096.58</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="20">
-        <v>4</v>
-      </c>
-      <c r="H5" s="20">
-        <v>223.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="G5" s="30">
+        <v>2</v>
+      </c>
+      <c r="H5" s="30">
+        <v>767.9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4">
+        <v>187.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -5456,19 +7271,25 @@
         <v>3912.28</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="20">
-        <v>8</v>
-      </c>
-      <c r="H6" s="20">
-        <v>655.20000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="30">
+        <v>10</v>
+      </c>
+      <c r="H6" s="30">
+        <v>699.9</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4">
+        <v>699.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -5476,19 +7297,25 @@
         <v>3635.02</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="20">
-        <v>6</v>
-      </c>
-      <c r="H7" s="20">
-        <v>359.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="30">
+        <v>4</v>
+      </c>
+      <c r="H7" s="30">
+        <v>613.6</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4">
+        <v>613.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -5496,32 +7323,74 @@
         <v>3382.4399999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="20">
-        <v>36</v>
-      </c>
-      <c r="H8" s="20">
-        <v>3912.28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="30">
+        <v>8</v>
+      </c>
+      <c r="H8" s="30">
+        <v>335.2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="4">
+        <v>335.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="4">
         <v>1939.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="30">
+        <v>4</v>
+      </c>
+      <c r="H9" s="30">
+        <v>187.6</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4">
+        <v>767.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="4">
         <v>1909.4800000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="30">
+        <v>34</v>
+      </c>
+      <c r="H10" s="30">
+        <v>4096.579999999999</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4096.579999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -5529,7 +7398,7 @@
         <v>1118.7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -5539,6 +7408,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7323,7 +9193,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -7335,16 +9205,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:10" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4"/>
@@ -7396,72 +9266,84 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E9FE5E-183C-4D1E-8F83-D7BBF136064A}">
-  <dimension ref="A3:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.69140625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="9.23046875" customWidth="1"/>
     <col min="5" max="5" width="1.61328125" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
     <col min="8" max="8" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.23046875" customWidth="1"/>
     <col min="12" max="12" width="1.61328125" customWidth="1"/>
+    <col min="13" max="13" width="9.23046875" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
     <col min="15" max="15" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.23046875" customWidth="1"/>
+    <col min="17" max="16384" width="9.23046875" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:15" ht="28.3" x14ac:dyDescent="0.75">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-    </row>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="26">
         <v>1</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="18" t="str">
+      <c r="F8" s="23" t="str">
         <f>'Tabela Dinâmica'!A4</f>
         <v>Gohan</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="J8" s="15">
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="J8" s="26">
         <v>5</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="18" t="str">
+      <c r="M8" s="23" t="str">
         <f>'Tabela Dinâmica'!A8</f>
         <v>Goku</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -7472,7 +9354,7 @@
         <f>GETPIVOTDATA("Total",'Tabela Dinâmica'!$A$3,"Vendedor Repetido","Gohan")</f>
         <v>4663.4800000000005</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
@@ -7488,7 +9370,7 @@
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
@@ -7499,7 +9381,7 @@
         <f>H9/2000</f>
         <v>2.3317400000000004</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
@@ -7511,32 +9393,33 @@
         <v>1.6912199999999997</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="15">
+      <c r="C12" s="26">
         <v>2</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="18" t="str">
+      <c r="F12" s="23" t="str">
         <f>'Tabela Dinâmica'!A5</f>
         <v>Tenshinhan</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="J12" s="15">
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="J12" s="26">
         <v>6</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="18" t="str">
+      <c r="M12" s="23" t="str">
         <f>'Tabela Dinâmica'!A9</f>
         <v>Kuririn</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:15" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="16"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
@@ -7547,7 +9430,7 @@
         <f>'Tabela Dinâmica'!$B$5</f>
         <v>4096.58</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
@@ -7560,7 +9443,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="17"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
@@ -7571,7 +9454,7 @@
         <f>H13/2000</f>
         <v>2.0482900000000002</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="28"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
@@ -7583,32 +9466,33 @@
         <v>0.96999000000000002</v>
       </c>
     </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C16" s="15">
+      <c r="C16" s="26">
         <v>3</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="18" t="str">
+      <c r="F16" s="23" t="str">
         <f>'Tabela Dinâmica'!A6</f>
         <v>Bulma</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="J16" s="15">
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="J16" s="26">
         <v>7</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="18" t="str">
+      <c r="M16" s="23" t="str">
         <f>'Tabela Dinâmica'!A10</f>
         <v>Vegeta</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="3:15" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C17" s="16"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
@@ -7619,7 +9503,7 @@
         <f>'Tabela Dinâmica'!$B$6</f>
         <v>3912.28</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
@@ -7632,7 +9516,7 @@
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C18" s="17"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
@@ -7643,7 +9527,7 @@
         <f>H17/2000</f>
         <v>1.95614</v>
       </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
@@ -7655,32 +9539,33 @@
         <v>0.95474000000000014</v>
       </c>
     </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4"/>
     <row r="20" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C20" s="15">
+      <c r="C20" s="26">
         <v>4</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="18" t="str">
+      <c r="F20" s="23" t="str">
         <f>'Tabela Dinâmica'!A7</f>
         <v>Piccolo</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="J20" s="15">
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="J20" s="26">
         <v>8</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="18" t="str">
+      <c r="M20" s="23" t="str">
         <f>'Tabela Dinâmica'!A11</f>
         <v>Yamcha</v>
       </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="3:15" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C21" s="16"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
@@ -7691,7 +9576,7 @@
         <f>'Tabela Dinâmica'!$B$7</f>
         <v>3635.02</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
@@ -7704,7 +9589,7 @@
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C22" s="17"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
@@ -7715,7 +9600,7 @@
         <f>H21/2000</f>
         <v>1.81751</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
@@ -7727,8 +9612,10 @@
         <v>0.55935000000000001</v>
       </c>
     </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="J20:J22"/>
@@ -7745,7 +9632,6 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" location="'Vendedores TOP3'!A1" display="01 - Vendedor TOP3" xr:uid="{8AE732FF-72D4-4ABD-9483-82061B8CEC05}"/>
@@ -7760,35 +9646,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77090BE-ED75-4D47-9E38-AEF66F206E68}">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.69140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.23046875" customWidth="1"/>
     <col min="3" max="3" width="9.3828125" customWidth="1"/>
-    <col min="4" max="4" width="24.61328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.61328125" style="23" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.15234375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.61328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.23046875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.61328125" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.61328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.23046875" customWidth="1"/>
+    <col min="14" max="16384" width="9.23046875" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:9" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="18" t="str">
         <f>'Tabela Dinâmica'!F1</f>
-        <v>Bulma</v>
-      </c>
-      <c r="F2" s="27" t="str">
+        <v>Tenshinhan</v>
+      </c>
+      <c r="F2" s="29" t="str">
         <f>'Tabela Dinâmica'!F1</f>
-        <v>Bulma</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
+        <v>Tenshinhan</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>51</v>
@@ -7805,267 +9695,268 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="21"/>
-      <c r="D9" s="25" t="str">
+      <c r="C9" s="13"/>
+      <c r="D9" s="17" t="str">
         <f t="array" ref="D9">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B1)),2),"")</f>
-        <v>Bermuda Masculino</v>
-      </c>
-      <c r="E9" s="25" t="str">
+        <v>Bolsa de Trabalho</v>
+      </c>
+      <c r="E9" s="17" t="str">
         <f>IFERROR(VLOOKUP(D9,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
-        <v>Bermuda_Masculino</v>
-      </c>
-      <c r="F9" s="25">
+        <v>Bolsa_de_Trabalho</v>
+      </c>
+      <c r="F9" s="17">
         <f t="array" ref="F9">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C1)),3),"")</f>
-        <v>18</v>
-      </c>
-      <c r="G9" s="30">
+        <v>6</v>
+      </c>
+      <c r="G9" s="21">
         <f t="array" ref="G9">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D1)),4),"")</f>
-        <v>2674.08</v>
+        <v>1492.3799999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="21"/>
-      <c r="D10" s="25" t="str">
+      <c r="C10" s="13"/>
+      <c r="D10" s="17" t="str">
         <f t="array" ref="D10">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B2)),2),"")</f>
-        <v>Sapatilha Sapato</v>
-      </c>
-      <c r="E10" s="25" t="str">
+        <v>Colar Pingente</v>
+      </c>
+      <c r="E10" s="17" t="str">
         <f>IFERROR(VLOOKUP(D10,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
-        <v>Sapatilha_Sapato</v>
-      </c>
-      <c r="F10" s="25">
+        <v>Colar_Pingente</v>
+      </c>
+      <c r="F10" s="17">
         <f t="array" ref="F10">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C2)),3),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="array" ref="G10">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D2)),4),"")</f>
+        <v>767.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="13"/>
+      <c r="D11" s="17" t="str">
+        <f t="array" ref="D11">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B3)),2),"")</f>
+        <v>Calça Feminina Jogger</v>
+      </c>
+      <c r="E11" s="17" t="str">
+        <f>IFERROR(VLOOKUP(D11,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>CalçaFemininaJogger</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="array" ref="F11">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C3)),3),"")</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="array" ref="G11">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D3)),4),"")</f>
+        <v>699.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="13"/>
+      <c r="D12" s="17" t="str">
+        <f t="array" ref="D12">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B4)),2),"")</f>
+        <v>Camisa Masculina</v>
+      </c>
+      <c r="E12" s="17" t="str">
+        <f>IFERROR(VLOOKUP(D12,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Camisa_Masculina</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="array" ref="F12">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C4)),3),"")</f>
         <v>4</v>
       </c>
-      <c r="G10" s="30">
-        <f t="array" ref="G10">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D2)),4),"")</f>
-        <v>223.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="21"/>
-      <c r="D11" s="25" t="str">
-        <f t="array" ref="D11">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B3)),2),"")</f>
-        <v>Sapato Social</v>
-      </c>
-      <c r="E11" s="25" t="str">
-        <f>IFERROR(VLOOKUP(D11,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
-        <v>Sapato_Social</v>
-      </c>
-      <c r="F11" s="25">
-        <f t="array" ref="F11">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C3)),3),"")</f>
+      <c r="G12" s="21">
+        <f t="array" ref="G12">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D4)),4),"")</f>
+        <v>613.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="13"/>
+      <c r="D13" s="17" t="str">
+        <f t="array" ref="D13">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B5)),2),"")</f>
+        <v>Camisa Térmica</v>
+      </c>
+      <c r="E13" s="17" t="str">
+        <f>IFERROR(VLOOKUP(D13,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
+        <v>Camisa_Térmica</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="array" ref="F13">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C5)),3),"")</f>
         <v>8</v>
       </c>
-      <c r="G11" s="30">
-        <f t="array" ref="G11">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D3)),4),"")</f>
-        <v>655.20000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="21"/>
-      <c r="D12" s="25" t="str">
-        <f t="array" ref="D12">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B4)),2),"")</f>
-        <v>Vestido Infantil</v>
-      </c>
-      <c r="E12" s="25" t="str">
-        <f>IFERROR(VLOOKUP(D12,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
-        <v>Vestido_Infantil</v>
-      </c>
-      <c r="F12" s="25">
-        <f t="array" ref="F12">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C4)),3),"")</f>
-        <v>6</v>
-      </c>
-      <c r="G12" s="30">
-        <f t="array" ref="G12">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D4)),4),"")</f>
-        <v>359.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="21"/>
-      <c r="D13" s="25" t="str">
-        <f t="array" ref="D13">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B5)),2),"")</f>
-        <v/>
-      </c>
-      <c r="E13" s="25" t="str">
-        <f>IFERROR(VLOOKUP(D13,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
-        <v>Vazio</v>
-      </c>
-      <c r="F13" s="25" t="str">
-        <f t="array" ref="F13">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C5)),3),"")</f>
-        <v/>
-      </c>
-      <c r="G13" s="30" t="str">
+      <c r="G13" s="21">
         <f t="array" ref="G13">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D5)),4),"")</f>
-        <v/>
+        <v>335.2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="21"/>
-      <c r="D14" s="25" t="str">
+      <c r="C14" s="13"/>
+      <c r="D14" s="17" t="str">
         <f t="array" ref="D14">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B6)),2),"")</f>
-        <v/>
-      </c>
-      <c r="E14" s="25" t="str">
+        <v>Calça Bailarina</v>
+      </c>
+      <c r="E14" s="17" t="str">
         <f>IFERROR(VLOOKUP(D14,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
-        <v>Vazio</v>
-      </c>
-      <c r="F14" s="25" t="str">
+        <v>Calça_Bailarina</v>
+      </c>
+      <c r="F14" s="17">
         <f t="array" ref="F14">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C6)),3),"")</f>
-        <v/>
-      </c>
-      <c r="G14" s="30" t="str">
+        <v>4</v>
+      </c>
+      <c r="G14" s="21">
         <f t="array" ref="G14">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D6)),4),"")</f>
-        <v/>
+        <v>187.6</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="21"/>
-      <c r="D15" s="25" t="str">
+      <c r="C15" s="13"/>
+      <c r="D15" s="17" t="str">
         <f t="array" ref="D15">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B7)),2),"")</f>
         <v/>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E15" s="17" t="str">
         <f>IFERROR(VLOOKUP(D15,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
         <v>Vazio</v>
       </c>
-      <c r="F15" s="25" t="str">
+      <c r="F15" s="17" t="str">
         <f t="array" ref="F15">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C7)),3),"")</f>
         <v/>
       </c>
-      <c r="G15" s="30" t="str">
+      <c r="G15" s="21" t="str">
         <f t="array" ref="G15">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D7)),4),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:9" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="21"/>
-      <c r="D16" s="25" t="str">
+      <c r="C16" s="13"/>
+      <c r="D16" s="17" t="str">
         <f t="array" ref="D16">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B8)),2),"")</f>
         <v/>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E16" s="17" t="str">
         <f>IFERROR(VLOOKUP(D16,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
         <v>Vazio</v>
       </c>
-      <c r="F16" s="25" t="str">
+      <c r="F16" s="17" t="str">
         <f t="array" ref="F16">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C8)),3),"")</f>
         <v/>
       </c>
-      <c r="G16" s="30" t="str">
+      <c r="G16" s="21" t="str">
         <f t="array" ref="G16">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D8)),4),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="21"/>
-      <c r="D17" s="25" t="str">
+      <c r="C17" s="13"/>
+      <c r="D17" s="17" t="str">
         <f t="array" ref="D17">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B9)),2),"")</f>
         <v/>
       </c>
-      <c r="E17" s="25" t="str">
+      <c r="E17" s="17" t="str">
         <f>IFERROR(VLOOKUP(D17,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
         <v>Vazio</v>
       </c>
-      <c r="F17" s="25" t="str">
+      <c r="F17" s="17" t="str">
         <f t="array" ref="F17">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C9)),3),"")</f>
         <v/>
       </c>
-      <c r="G17" s="30" t="str">
+      <c r="G17" s="21" t="str">
         <f t="array" ref="G17">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D9)),4),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="21"/>
-      <c r="D18" s="25" t="str">
+      <c r="C18" s="13"/>
+      <c r="D18" s="17" t="str">
         <f t="array" ref="D18">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B10)),2),"")</f>
         <v/>
       </c>
-      <c r="E18" s="25" t="str">
+      <c r="E18" s="17" t="str">
         <f>IFERROR(VLOOKUP(D18,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
         <v>Vazio</v>
       </c>
-      <c r="F18" s="25" t="str">
+      <c r="F18" s="17" t="str">
         <f t="array" ref="F18">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C10)),3),"")</f>
         <v/>
       </c>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="21" t="str">
         <f t="array" ref="G18">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D10)),4),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="21"/>
-      <c r="D19" s="25" t="str">
+      <c r="C19" s="13"/>
+      <c r="D19" s="17" t="str">
         <f t="array" ref="D19">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B11)),2),"")</f>
         <v/>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="17" t="str">
         <f>IFERROR(VLOOKUP(D19,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
         <v>Vazio</v>
       </c>
-      <c r="F19" s="25" t="str">
+      <c r="F19" s="17" t="str">
         <f t="array" ref="F19">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C11)),3),"")</f>
         <v/>
       </c>
-      <c r="G19" s="30" t="str">
+      <c r="G19" s="21" t="str">
         <f t="array" ref="G19">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D11)),4),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="21"/>
-      <c r="D20" s="25" t="str">
+      <c r="C20" s="13"/>
+      <c r="D20" s="17" t="str">
         <f t="array" ref="D20">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B12)),2),"")</f>
         <v/>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E20" s="17" t="str">
         <f>IFERROR(VLOOKUP(D20,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
         <v>Vazio</v>
       </c>
-      <c r="F20" s="25" t="str">
+      <c r="F20" s="17" t="str">
         <f t="array" ref="F20">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C12)),3),"")</f>
         <v/>
       </c>
-      <c r="G20" s="30" t="str">
+      <c r="G20" s="21" t="str">
         <f t="array" ref="G20">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D12)),4),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="3:7" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="21"/>
-      <c r="D21" s="25" t="str">
+      <c r="C21" s="13"/>
+      <c r="D21" s="17" t="str">
         <f t="array" ref="D21">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!B13)),2),"")</f>
         <v/>
       </c>
-      <c r="E21" s="25" t="str">
+      <c r="E21" s="17" t="str">
         <f>IFERROR(VLOOKUP(D21,'Imagens Produtos'!A:B,2,0),"Vazio")</f>
         <v>Vazio</v>
       </c>
-      <c r="F21" s="25" t="str">
+      <c r="F21" s="17" t="str">
         <f t="array" ref="F21">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!C13)),3),"")</f>
         <v/>
       </c>
-      <c r="G21" s="30" t="str">
+      <c r="G21" s="21" t="str">
         <f t="array" ref="G21">IFERROR(INDEX('Tabela Dinâmica'!$E$4:$H$100,SMALL(IF('Tabela Dinâmica'!$E$4:$E$100='Tabela Dinâmica'!$F$1,ROW('Tabela Dinâmica'!$E$4:$E$100)-3),ROW(Resumo!D13)),4),"")</f>
         <v/>
       </c>
     </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:I2"/>
